--- a/biology/Botanique/Charlotte_Armstrong_(rose)/Charlotte_Armstrong_(rose).xlsx
+++ b/biology/Botanique/Charlotte_Armstrong_(rose)/Charlotte_Armstrong_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Charlotte Armstrong' est un cultivar de rosier obtenu en Californie en 1940 par le rosiériste américain Lammerts[1].
+'Charlotte Armstrong' est un cultivar de rosier obtenu en Californie en 1940 par le rosiériste américain Lammerts.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Charlotte Armstrong' est une rose moderne du groupe hybride de thé[2] grandiflora, issue du croisement 'Sœur Thérèse' × 'Crimson Glory'. 
-Le buisson a un port érigé et peut s'élever à 130 cm de hauteur. Son feuillage est vert foncé et brillant[1]. Ses fleurs très doubles en forme de coupe sont d'un rose profond et fortement parfumées et possèdent de 26 à 40 pétales. La floraison est remontante. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Charlotte Armstrong' est une rose moderne du groupe hybride de thé grandiflora, issue du croisement 'Sœur Thérèse' × 'Crimson Glory'. 
+Le buisson a un port érigé et peut s'élever à 130 cm de hauteur. Son feuillage est vert foncé et brillant. Ses fleurs très doubles en forme de coupe sont d'un rose profond et fortement parfumées et possèdent de 26 à 40 pétales. La floraison est remontante. 
 Sa zone de rusticité est 6b ; il s'agit d'un rosier vigoureux, aussi bien adapté au jardin qu'à la fleur à couper. Il faut ôter les fleurs fanées pour favoriser la floraison suivante.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>All-America Rose Selections 1941
 David Fuerstenberg Prize 1941
@@ -580,7 +596,9 @@
           <t>Variétés dérivées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les qualités exceptionnelles de 'Charlotte Armstrong' en ont fait l'ascendant de nombreux hybrides, parmi lesquels
 'Sutter's Gold' (Swim 1950), issu d'un croisement avec 'Signora'.
